--- a/data/georgia_census/kakheti/signagi/healthcare_staff.xlsx
+++ b/data/georgia_census/kakheti/signagi/healthcare_staff.xlsx
@@ -1372,13 +1372,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7701A38F-AB1A-484D-94A7-4A6B42A90796}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DED77802-1FBD-4784-B386-991EF332AF7B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B16E47E5-03D3-45DD-A2B2-7033DFAE40D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{763245C1-A29C-474C-93FD-3818E4331E6C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C17C641-0C76-4A68-A491-2840D1035AD7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3519F2AD-DE2B-4CB4-999B-1291AF548127}"/>
 </file>